--- a/CardIdeas.xlsx
+++ b/CardIdeas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STSMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SlaySpireMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F691066-C791-429B-A88F-43B46BD5B78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1520C55B-3E7F-431E-8C07-89F25488C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3A157CED-B981-4E6C-9878-B5B61C1D8C87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3A157CED-B981-4E6C-9878-B5B61C1D8C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Needs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="168">
   <si>
     <t>In total, you're looking at around 75 cards for a new character, 3 of which are you starting deck.
 Keep in mid the energy distribution does not into acount upgrade discounts, only base costs (i.e. Terror is counted as a 1 cost). It also does count starter deck cards.</t>
@@ -412,9 +412,6 @@
     <t>if enemy intends to attack</t>
   </si>
   <si>
-    <t>buff with hp loss downisde</t>
-  </si>
-  <si>
     <t>attack scales with missing health</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>Play a card from everyother color, deal 50 damage to all enemies</t>
   </si>
   <si>
-    <t>reduce the cost of all card in hand by 1 this turn, whenever you play a card this turn lose 2hp.</t>
-  </si>
-  <si>
     <t>Deal 4(6) damage, Lifesteal if you took 5+ damage this turn Draw a card. (Exsanguinate)</t>
   </si>
   <si>
@@ -529,7 +523,28 @@
     <t>choose a color replace cards in your hand or deck or discard with cards from that color</t>
   </si>
   <si>
-    <t>Choose one: david goliath, (deal extra damage if character has 100+ health) (deal extra damage if character has &lt; 100 health)</t>
+    <t>Special quests that last throughout combat/relic</t>
+  </si>
+  <si>
+    <t>cards cost health this turn.</t>
+  </si>
+  <si>
+    <t>swap mechanic based on turn. Or everytime you take damage</t>
+  </si>
+  <si>
+    <t>Play cards discarded this turn. (Salvation)</t>
+  </si>
+  <si>
+    <t>Choose one: david goliath, (deal extra damage if character has 40+ health) (deal extra damage if character has &lt; 40 health)</t>
+  </si>
+  <si>
+    <t>reduce the cost of all card in hand by 1 this turn, whenever you play a card this turn lose 1hp.</t>
+  </si>
+  <si>
+    <t>Return a random card from your exhaust pile to your hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce the cost of cards in hand by 1, lose 1 hp per card played this turn. </t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1184,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F045DB7E-3007-4CDB-9130-BD56B0559F83}" name="Type" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{68C660B8-7273-4922-B4B7-D48A0E9FFA54}" name="Count" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
-      <totalsRowFormula>Skills!B37+Attacks!B37+Power!B25&amp;" (need 75)"</totalsRowFormula>
+      <totalsRowFormula>Skills!B40+Attacks!B37+Power!B25&amp;" (need 75)"</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Gremy Simple Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1905,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D6904-8987-4D99-BBBD-BE3C7B629E16}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,8 +1979,8 @@
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>Skills!C41+Attacks!C39+Power!C27</f>
-        <v>6</v>
+        <f>Skills!C44+Attacks!C39+Power!C27</f>
+        <v>7</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>8</v>
@@ -1979,15 +1994,15 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>Skills!A37</f>
-        <v>Total # of skill: 27 -------- Need 29-36</v>
+        <f>Skills!A40</f>
+        <v>Total # of skill: 30 -------- Need 29-36</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
       </c>
       <c r="F5" s="8">
-        <f>Skills!C42+Attacks!C40+Power!C28</f>
-        <v>31</v>
+        <f>Skills!C45+Attacks!C40+Power!C28</f>
+        <v>33</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
@@ -2008,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="8">
-        <f>Skills!C43+Attacks!C41+Power!C29</f>
+        <f>Skills!C46+Attacks!C41+Power!C29</f>
         <v>17</v>
       </c>
       <c r="H6" s="8">
@@ -2023,14 +2038,14 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>Skills!B37+Attacks!B37+Power!B25&amp;" (need 75)"</f>
-        <v>65 (need 75)</v>
+        <f>Skills!B40+Attacks!B37+Power!B25&amp;" (need 75)"</f>
+        <v>68 (need 75)</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="8">
-        <f>Skills!C44+Attacks!C42+Power!C30</f>
+        <f>Skills!C47+Attacks!C42+Power!C30</f>
         <v>7</v>
       </c>
       <c r="H7" s="8">
@@ -2045,7 +2060,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="8">
-        <f>Skills!C40</f>
+        <f>Skills!C43</f>
         <v>1</v>
       </c>
       <c r="H8" s="8">
@@ -2065,7 +2080,7 @@
       </c>
       <c r="F9" s="16">
         <f>SUM(F4:F7)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>14</v>
@@ -2079,7 +2094,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="8">
-        <f>Skills!C35+Attacks!C35+Power!C23</f>
+        <f>Skills!C38+Attacks!C35+Power!C23</f>
         <v>11</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -2095,7 +2110,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="8">
-        <f>Skills!E35+Attacks!E35+Power!E23</f>
+        <f>Skills!E38+Attacks!E35+Power!E23</f>
         <v>11</v>
       </c>
     </row>
@@ -2104,7 +2119,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="8">
-        <f>Skills!F35+Attacks!F35+Power!F23</f>
+        <f>Skills!F38+Attacks!F35+Power!F23</f>
         <v>7</v>
       </c>
     </row>
@@ -2113,7 +2128,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="8">
-        <f>Skills!D35+Attacks!D35+Power!D23</f>
+        <f>Skills!D38+Attacks!D35+Power!D23</f>
         <v>8</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -2125,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="8">
-        <f>Skills!G35+Attacks!G35+Power!G23</f>
+        <f>Skills!G38+Attacks!G35+Power!G23</f>
         <v>6</v>
       </c>
       <c r="E14" s="21" t="s">
@@ -2137,7 +2152,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="8">
-        <f>Skills!I35+Attacks!I35+Power!I23</f>
+        <f>Skills!I38+Attacks!I35+Power!I23</f>
         <v>3</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -2149,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="8">
-        <f>Skills!H35+Attacks!H35+Power!H23</f>
+        <f>Skills!H38+Attacks!H35+Power!H23</f>
         <v>2</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -2161,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="8">
-        <f>Skills!B35+Attacks!B35+Power!B23</f>
+        <f>Skills!B38+Attacks!B35+Power!B23</f>
         <v>4</v>
       </c>
     </row>
@@ -2245,16 +2260,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D006DBC-A0DD-47DE-B02C-44D5DCFDC50A}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
@@ -2308,7 +2323,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="19"/>
@@ -2326,8 +2341,8 @@
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="str">
-        <f>"Total 0-cost cards: "&amp;C41</f>
-        <v>Total 0-cost cards: 5</v>
+        <f>"Total 0-cost cards: "&amp;C44</f>
+        <v>Total 0-cost cards: 6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2364,359 +2379,379 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="str">
-        <f>"Total 1-cost cards: "&amp;C42</f>
-        <v>Total 1-cost cards: 12</v>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>117</v>
+      <c r="A12" s="11" t="str">
+        <f>"Total 1-cost cards: "&amp;C45</f>
+        <v>Total 1-cost cards: 14</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>160</v>
+        <v>141</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>8</v>
+      <c r="F17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="str">
-        <f>"Total 2-cost cards: "&amp;C43</f>
-        <v>Total 2-cost cards: 4</v>
+      <c r="A25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>8</v>
+      <c r="A28" s="11" t="str">
+        <f>"Total 2-cost cards: "&amp;C46</f>
+        <v>Total 2-cost cards: 4</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="str">
-        <f>"Total 3+ cost cards "&amp;C44</f>
-        <v>Total 3+ cost cards 4</v>
+      <c r="A29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="str">
+        <f>"Total 3+ cost cards "&amp;C47</f>
+        <v>Total 3+ cost cards 4</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="B37" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="10">
-        <f t="shared" ref="B35:I35" si="0">COUNTA(B2:B34)</f>
+      <c r="B38" s="10">
+        <f t="shared" ref="B38:I38" si="0">COUNTA(B2:B37)</f>
         <v>2</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C38" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D38" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E38" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I38" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="str">
-        <f>"Total # of skill: "&amp;B37&amp;" -------- Need 29-36"</f>
-        <v>Total # of skill: 27 -------- Need 29-36</v>
-      </c>
-      <c r="B37" s="14">
-        <f>COUNTA(A30:A34,A26:A28,A12:A24,A6:A10,A3:A3)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="str">
+        <f>"Total # of skill: "&amp;B40&amp;" -------- Need 29-36"</f>
+        <v>Total # of skill: 30 -------- Need 29-36</v>
+      </c>
+      <c r="B40" s="14">
+        <f>COUNTA(A33:A37,A29:A31,A13:A27,A6:A11,A3:A3)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C40">
+      <c r="C43">
         <f>COUNTA(A3:A3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41">
-        <f>COUNTA(A6:A10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42">
-        <f>COUNTA(A13:A24)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43">
-        <f>COUNTA(A27:A30)</f>
-        <v>4</v>
-      </c>
-    </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C44">
-        <f>COUNTA(A31:A34)</f>
-        <v>4</v>
+        <f>COUNTA(A6:A11)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <f>COUNTA(A14:A27)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <f>COUNTA(A30:A33)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <f>COUNTA(A34:A37)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2727,11 +2762,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B22A8AA-6598-474E-B9EF-35786CE237AC}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2742,7 +2777,7 @@
     <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2836,7 +2871,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
@@ -2865,7 +2900,7 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2891,7 +2926,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>8</v>
@@ -2923,7 +2958,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2934,7 +2969,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>8</v>
@@ -2942,7 +2977,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3038,7 +3073,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38">
         <f>COUNTA(#REF!)</f>
@@ -3093,14 +3128,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -3108,37 +3138,42 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3149,11 +3184,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECE56B-184C-46F4-B961-36434E34E271}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3261,7 +3296,7 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3364,7 +3399,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -3376,7 +3411,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
@@ -3388,7 +3423,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
@@ -3400,7 +3435,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -3412,12 +3447,17 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
